--- a/MyAgendas-API-Docs.xlsx
+++ b/MyAgendas-API-Docs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colin\Desktop\.IUT-Cours\2A\Web\MyAgendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD1EE2C-01CB-447D-9D48-E38551704C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB913C78-D09C-4E35-94B7-22007CBA88CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4095" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t>VERB</t>
   </si>
@@ -130,6 +130,18 @@
   </si>
   <si>
     <t>SEARCH</t>
+  </si>
+  <si>
+    <t>AUTH</t>
+  </si>
+  <si>
+    <t>/auth/register</t>
+  </si>
+  <si>
+    <t>/auth/login</t>
+  </si>
+  <si>
+    <t>/users/{userID}/tasks</t>
   </si>
 </sst>
 </file>
@@ -173,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,6 +198,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,11 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,26 +505,26 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
       <c r="N1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -520,7 +535,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -529,8 +544,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
@@ -538,16 +553,16 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -556,7 +571,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -565,7 +580,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -574,7 +589,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -583,7 +598,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -594,7 +609,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -603,7 +618,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -612,7 +627,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -621,7 +636,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
@@ -630,7 +645,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
@@ -639,7 +654,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -648,7 +663,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -657,7 +672,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
@@ -666,7 +681,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -677,7 +692,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -686,7 +701,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -695,7 +710,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
@@ -704,7 +719,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -713,7 +728,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
@@ -722,7 +737,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -731,7 +746,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
@@ -740,7 +755,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
@@ -749,7 +764,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
@@ -758,7 +773,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -769,7 +784,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,7 +793,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
@@ -787,7 +802,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
@@ -796,7 +811,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
@@ -805,7 +820,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
@@ -814,7 +829,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
@@ -823,7 +838,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
@@ -832,7 +847,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -843,7 +858,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="3"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
@@ -852,7 +867,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
@@ -861,7 +876,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,7 +885,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
@@ -879,7 +894,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="1" t="s">
         <v>10</v>
       </c>
@@ -888,7 +903,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
         <v>11</v>
       </c>
@@ -897,7 +912,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -907,8 +922,29 @@
         <v>33</v>
       </c>
     </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="4"/>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A19:A28"/>
     <mergeCell ref="A29:A36"/>
     <mergeCell ref="A37:A43"/>
@@ -918,6 +954,6 @@
     <mergeCell ref="A10:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyAgendas-API-Docs.xlsx
+++ b/MyAgendas-API-Docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colin\Desktop\.IUT-Cours\2A\Web\MyAgendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB913C78-D09C-4E35-94B7-22007CBA88CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EF1EF8-826D-480E-8367-2BF5604B5E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="99">
   <si>
     <t>VERB</t>
   </si>
@@ -51,9 +51,6 @@
     <t>/users/{userID}</t>
   </si>
   <si>
-    <t>/users/{userID}/groups</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>/tasks/{taskID}</t>
   </si>
   <si>
-    <t>/tasks/{taskID}/groups</t>
-  </si>
-  <si>
     <t>TASK</t>
   </si>
   <si>
@@ -141,7 +135,193 @@
     <t>/auth/login</t>
   </si>
   <si>
-    <t>/users/{userID}/tasks</t>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>/users/me</t>
+  </si>
+  <si>
+    <t>/users/me/groups</t>
+  </si>
+  <si>
+    <t>/users/me/tasks</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Get user by his id</t>
+  </si>
+  <si>
+    <t>Get all users</t>
+  </si>
+  <si>
+    <t>Get all group of login user</t>
+  </si>
+  <si>
+    <t>Get all task of login user</t>
+  </si>
+  <si>
+    <t>Update data of login user</t>
+  </si>
+  <si>
+    <t>Add groups to login user</t>
+  </si>
+  <si>
+    <t>Delete login user</t>
+  </si>
+  <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>groupID</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>agendas</t>
+  </si>
+  <si>
+    <t>agenda</t>
+  </si>
+  <si>
+    <t>Get all groups</t>
+  </si>
+  <si>
+    <t>Get group by his id</t>
+  </si>
+  <si>
+    <t>Get all users of group with his id</t>
+  </si>
+  <si>
+    <t>Get all parents of group with his id</t>
+  </si>
+  <si>
+    <t>Get all tasks of group with his id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create new groups </t>
+  </si>
+  <si>
+    <t>Update data of  group with his id</t>
+  </si>
+  <si>
+    <t>Get all agendas</t>
+  </si>
+  <si>
+    <t>Get agenda by his id</t>
+  </si>
+  <si>
+    <t>Get all groups of agenda with his id</t>
+  </si>
+  <si>
+    <t>Get all tasks of agenda with his id</t>
+  </si>
+  <si>
+    <t>Get all subjects of agenda with his id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create new agendas </t>
+  </si>
+  <si>
+    <t>Update data of groups in body</t>
+  </si>
+  <si>
+    <t>Update data of agendas in body</t>
+  </si>
+  <si>
+    <t>Delete group with his id</t>
+  </si>
+  <si>
+    <t>Delete agenda with his id</t>
+  </si>
+  <si>
+    <t>Remote group of agenda with his id</t>
+  </si>
+  <si>
+    <t>Add group of agenda with his id</t>
+  </si>
+  <si>
+    <t>Remote groups to login user</t>
+  </si>
+  <si>
+    <t>Get all tasks</t>
+  </si>
+  <si>
+    <t>Get task by his id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create new tasks </t>
+  </si>
+  <si>
+    <t>Update data of tasks in body</t>
+  </si>
+  <si>
+    <t>Update data of  task with his id</t>
+  </si>
+  <si>
+    <t>Delete task with his id</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>Get all subjects</t>
+  </si>
+  <si>
+    <t>Get subject by his id</t>
+  </si>
+  <si>
+    <t>Get tasks of subject by his id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create new subjects </t>
+  </si>
+  <si>
+    <t>Update data of subjects in body</t>
+  </si>
+  <si>
+    <t>Update data of  subject with his id</t>
+  </si>
+  <si>
+    <t>Delete subject with his id</t>
+  </si>
+  <si>
+    <t>subjects</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>serach</t>
+  </si>
+  <si>
+    <t>Search in all table</t>
+  </si>
+  <si>
+    <t>Register user</t>
+  </si>
+  <si>
+    <t>Login user</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Get user login</t>
   </si>
 </sst>
 </file>
@@ -165,15 +345,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -181,11 +367,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,13 +496,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -482,11 +817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,464 +829,970 @@
     <col min="1" max="1" width="10.6328125" customWidth="1"/>
     <col min="2" max="2" width="10.36328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.1796875" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="76.26953125" customWidth="1"/>
+    <col min="9" max="9" width="76.26953125" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="J1" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1" t="s">
+      <c r="C16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1" t="s">
+      <c r="C19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1" t="s">
+      <c r="C29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1" t="s">
+      <c r="C33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="1" t="s">
+      <c r="C34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="1" t="s">
+      <c r="C36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+      <c r="C43" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
-      <c r="B31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
-      <c r="B32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
-      <c r="B34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="4"/>
-      <c r="B36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="4"/>
-      <c r="B39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B44" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="4"/>
-      <c r="B40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="4"/>
-      <c r="B41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="4"/>
-      <c r="B42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="4"/>
-      <c r="B43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+      <c r="D44" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="4"/>
-      <c r="B46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" t="s">
-        <v>37</v>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A20:A30"/>
+    <mergeCell ref="A31:A36"/>
     <mergeCell ref="A37:A43"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/MyAgendas-API-Docs.xlsx
+++ b/MyAgendas-API-Docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colin\Desktop\.IUT-Cours\2A\Web\MyAgendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EF1EF8-826D-480E-8367-2BF5604B5E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA906048-2E39-435A-9352-02BB58C1BCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,7 +345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,6 +355,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -535,6 +541,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -819,9 +834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -862,7 +877,7 @@
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -884,7 +899,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -902,7 +917,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -920,7 +935,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -940,6 +955,7 @@
       <c r="I5" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
@@ -966,7 +982,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -984,10 +1000,11 @@
       <c r="I7" s="10" t="s">
         <v>47</v>
       </c>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1008,7 +1025,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1029,7 +1046,7 @@
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -1050,7 +1067,7 @@
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1071,7 +1088,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1088,7 +1105,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="9" t="s">
